--- a/biology/Botanique/Erythrina_mulungu/Erythrina_mulungu.xlsx
+++ b/biology/Botanique/Erythrina_mulungu/Erythrina_mulungu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Mulungu (Erythrina mulungu) est un arbre originaire d'Amérique du Sud, principalement du Brésil. Il est utilisé traditionnellement dans la médecine populaire amazonienne pour ses propriétés médicinales.
 Malgré sa relative méconnaissance en Europe, le mulungu présente des propriétés prometteuses, particulièrement dans le traitement de l'anxiété, des spasmes et des convulsions. En tant que tel, il pourrait offrir une alternative aux benzodiazépines, aux barbituriques et aux anticonvulsivants conventionnels. Cette plante pourrait ainsi représenter une option thérapeutique naturelle et potentiellement efficace pour ceux qui recherchent des traitements alternatifs ou complémentaires aux médicaments synthétiques traditionnels.
@@ -514,14 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Apparence générale
-Le mulungu est un arbre à feuilles caduques qui peut atteindre jusqu'à 20 mètres de hauteur. Il a une apparence distincte avec un tronc droit et robuste, souvent de couleur grise ou brun clair, et une écorce lisse qui peut devenir rugueuse avec l'âge. Les branches sont étalées et portent des feuilles vertes et brillantes.
-Feuilles
-Les feuilles du mulungu sont alternes, composées de trois folioles, ce qui signifie qu'elles sont divisées en trois parties distinctes. Chaque foliole est ovale à oblongue, avec une pointe à l'extrémité et une texture légèrement coriace. Les feuilles sont généralement de couleur vert vif lorsqu'elles sont jeunes, puis deviennent plus foncées avec l'âge.
-Fleurs
-Les fleurs du mulungu sont très distinctives et attrayantes. Elles sont regroupées en grappes denses de couleur rouge vif à l'extrémité des branches. Chaque fleur a cinq pétales et un ensemble d'étamines longues qui dépassent de la fleur. La floraison se produit généralement au printemps ou en été, selon les conditions climatiques locales.
-Fruits
-Les fruits du mulungu sont des gousses oblongues et pendantes, qui mesurent généralement de 10 à 20 cm de longueur. Les gousses contiennent des graines ovales de couleur brune à noire. Elles restent sur l'arbre pendant une grande partie de l'année avant de mûrir et de se fendre pour libérer les graines à l'automne.
+          <t>Apparence générale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mulungu est un arbre à feuilles caduques qui peut atteindre jusqu'à 20 mètres de hauteur. Il a une apparence distincte avec un tronc droit et robuste, souvent de couleur grise ou brun clair, et une écorce lisse qui peut devenir rugueuse avec l'âge. Les branches sont étalées et portent des feuilles vertes et brillantes.
 </t>
         </is>
       </c>
@@ -547,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Composition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'extrait de mulungu est riche en alcaloïdes tétrahydroisoquinoléine, notamment l'érythravine et le (+)-11α-hydroxy-érythravine, qui sont responsables de ses effets pharmacologiques. Ces composés agissent comme des agonistes des récepteurs GABA-A et sérotoninergiques, conférant à la plante des propriétés sédatives, anxiolytiques et anticonvulsivantes. En particulier, le (+)-11α-hydroxy-érythravine montre un potentiel pour le traitement des crises d'épilepsie. Ces découvertes soulignent le potentiel du mulungu en tant que source de nouveaux médicaments pour le traitement des troubles du sommeil, de l'anxiété et des convulsions[1].
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles du mulungu sont alternes, composées de trois folioles, ce qui signifie qu'elles sont divisées en trois parties distinctes. Chaque foliole est ovale à oblongue, avec une pointe à l'extrémité et une texture légèrement coriace. Les feuilles sont généralement de couleur vert vif lorsqu'elles sont jeunes, puis deviennent plus foncées avec l'âge.
 </t>
         </is>
       </c>
@@ -578,10 +595,119 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs du mulungu sont très distinctives et attrayantes. Elles sont regroupées en grappes denses de couleur rouge vif à l'extrémité des branches. Chaque fleur a cinq pétales et un ensemble d'étamines longues qui dépassent de la fleur. La floraison se produit généralement au printemps ou en été, selon les conditions climatiques locales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Erythrina_mulungu</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erythrina_mulungu</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits du mulungu sont des gousses oblongues et pendantes, qui mesurent généralement de 10 à 20 cm de longueur. Les gousses contiennent des graines ovales de couleur brune à noire. Elles restent sur l'arbre pendant une grande partie de l'année avant de mûrir et de se fendre pour libérer les graines à l'automne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Erythrina_mulungu</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erythrina_mulungu</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Composition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'extrait de mulungu est riche en alcaloïdes tétrahydroisoquinoléine, notamment l'érythravine et le (+)-11α-hydroxy-érythravine, qui sont responsables de ses effets pharmacologiques. Ces composés agissent comme des agonistes des récepteurs GABA-A et sérotoninergiques, conférant à la plante des propriétés sédatives, anxiolytiques et anticonvulsivantes. En particulier, le (+)-11α-hydroxy-érythravine montre un potentiel pour le traitement des crises d'épilepsie. Ces découvertes soulignent le potentiel du mulungu en tant que source de nouveaux médicaments pour le traitement des troubles du sommeil, de l'anxiété et des convulsions.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Erythrina_mulungu</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erythrina_mulungu</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Phytothérapie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Traditionnellement, l'écorce de mulungu est utilisée pour ses effets sédatifs, anxiolytiques, hypotenseurs, spasmolytiques et anticonvulsivants.
 En phytothérapie, le mulungu est notamment étudié pour ses possibles bienfaits dans le traitement de l'hypertension et des spasmes musculaires.
